--- a/earlywarning-pom/earlywarning-config/src/baf-instances/30_Inst_Workspace_KOPER.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/30_Inst_Workspace_KOPER.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="0" windowWidth="20610" windowHeight="11640"/>
+    <workbookView xWindow="2040" yWindow="0" windowWidth="20610" windowHeight="11640" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Workspace" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="43">
   <si>
     <t>Workspace</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>KOPER_TARGET</t>
+  </si>
+  <si>
+    <t>BL_KOPER_000003</t>
+  </si>
+  <si>
+    <t>WS_KOPER_SMALL_MICRO-BL_KOPER_000003</t>
   </si>
 </sst>
 </file>
@@ -973,7 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1149,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,6 +1234,23 @@
         <v>37</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1239,7 +1262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
